--- a/u_find.xlsx
+++ b/u_find.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://savethechildren1-my.sharepoint.com/personal/tuly_ghosh_savethechildren_org/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\excel_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE88B688-D50F-48E9-B356-5910D00A41E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B13329-4E26-4CBC-955E-AF1F05234610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2265" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="705" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,34 +52,70 @@
   <commentList>
     <comment ref="K43" authorId="0" shapeId="0" xr:uid="{915D2B15-2941-4CAE-A9F0-A34D79E1F05F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This is repeating. We may remove one</t>
+        </r>
       </text>
     </comment>
     <comment ref="K44" authorId="1" shapeId="0" xr:uid="{2E653B06-DD7C-41A4-864F-A134FB6679B5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This is repeating. we may remove one</t>
+        </r>
       </text>
     </comment>
     <comment ref="K45" authorId="2" shapeId="0" xr:uid="{43FFC750-5FAA-4EB6-B118-E8CEA31CAAD1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This is repeating. we may remove one</t>
+        </r>
       </text>
     </comment>
     <comment ref="K46" authorId="3" shapeId="0" xr:uid="{355DD961-4389-45E0-B6C9-0E66D5A1A14A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This is repeating. we may remove one</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -96,10 +130,19 @@
   <commentList>
     <comment ref="B143" authorId="0" shapeId="0" xr:uid="{F83AE52B-4824-4DD7-B659-0A01F70F169B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     What does it mean? Is that name of account or name of account holder? if so, suggest to change "name of account holder"</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -14367,18 +14410,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="76" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="41" customWidth="1"/>
     <col min="3" max="4" width="28" style="20" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="43" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="20" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="20" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="39.875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="43" customWidth="1"/>
     <col min="10" max="10" width="42" style="43" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="42" style="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5703125" customWidth="1"/>
+    <col min="13" max="13" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1" ht="35.450000000000003" customHeight="1">
@@ -17497,30 +17540,30 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="65.7109375" style="60" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="60" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="60" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="62" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="59.125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="48.25" style="60" customWidth="1"/>
+    <col min="8" max="8" width="65.75" style="60" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="60" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="60" customWidth="1"/>
     <col min="11" max="11" width="37" style="60" customWidth="1"/>
-    <col min="12" max="12" width="58.140625" style="60" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" style="60" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="60"/>
+    <col min="12" max="12" width="58.125" style="60" customWidth="1"/>
+    <col min="13" max="13" width="33.25" style="60" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="59" customFormat="1">
+    <row r="1" spans="1:13" s="59" customFormat="1" ht="15.75">
       <c r="A1" s="59" t="s">
         <v>813</v>
       </c>
@@ -17561,7 +17604,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="48">
+    <row r="2" spans="1:13" customFormat="1" ht="57">
       <c r="A2" s="287" t="s">
         <v>824</v>
       </c>
@@ -17600,7 +17643,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="3" spans="1:13" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" customFormat="1" ht="14.25">
       <c r="A3" s="288"/>
       <c r="B3" s="114"/>
       <c r="C3" s="115"/>
@@ -17621,7 +17664,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" customFormat="1" ht="14.25">
       <c r="A4" s="288"/>
       <c r="B4" s="114"/>
       <c r="C4" s="115"/>
@@ -17642,7 +17685,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:13" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" customFormat="1" ht="14.25">
       <c r="A5" s="288"/>
       <c r="B5" s="114"/>
       <c r="C5" s="115"/>
@@ -17663,7 +17706,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" customFormat="1" ht="14.25">
       <c r="A6" s="288"/>
       <c r="B6" s="114"/>
       <c r="C6" s="115"/>
@@ -17684,7 +17727,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="7" spans="1:13" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" customFormat="1" ht="14.25">
       <c r="A7" s="288"/>
       <c r="B7" s="114"/>
       <c r="C7" s="115"/>
@@ -17705,7 +17748,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" customFormat="1" ht="14.25">
       <c r="A8" s="288"/>
       <c r="B8" s="114"/>
       <c r="C8" s="115"/>
@@ -17726,7 +17769,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="64.5">
+    <row r="9" spans="1:13" customFormat="1" ht="42.75">
       <c r="A9" s="288"/>
       <c r="B9" s="116" t="s">
         <v>270</v>
@@ -17763,7 +17806,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="10" spans="1:13" customFormat="1" ht="32.25">
+    <row r="10" spans="1:13" customFormat="1" ht="28.5">
       <c r="A10" s="288"/>
       <c r="B10" s="114"/>
       <c r="C10" s="115"/>
@@ -17786,7 +17829,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="11" spans="1:13" customFormat="1" ht="48">
+    <row r="11" spans="1:13" customFormat="1" ht="28.5">
       <c r="A11" s="288"/>
       <c r="B11" s="114"/>
       <c r="C11" s="115"/>
@@ -17809,7 +17852,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="12" spans="1:13" customFormat="1" ht="15.75">
+    <row r="12" spans="1:13" customFormat="1" ht="15">
       <c r="A12" s="288"/>
       <c r="B12" s="114"/>
       <c r="C12" s="115"/>
@@ -17830,7 +17873,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="13" spans="1:13" customFormat="1" ht="48">
+    <row r="13" spans="1:13" customFormat="1" ht="28.5">
       <c r="A13" s="288"/>
       <c r="B13" s="114"/>
       <c r="C13" s="115"/>
@@ -17851,7 +17894,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="14" spans="1:13" customFormat="1" ht="15.75">
+    <row r="14" spans="1:13" customFormat="1" ht="15">
       <c r="A14" s="288"/>
       <c r="B14" s="114"/>
       <c r="C14" s="115"/>
@@ -17872,7 +17915,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:13" customFormat="1" ht="31.5">
+    <row r="15" spans="1:13" customFormat="1" ht="28.5">
       <c r="A15" s="288"/>
       <c r="B15" s="114"/>
       <c r="C15" s="115"/>
@@ -17893,7 +17936,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="16" spans="1:13" customFormat="1" ht="15.75">
+    <row r="16" spans="1:13" customFormat="1" ht="15">
       <c r="A16" s="288"/>
       <c r="B16" s="114"/>
       <c r="C16" s="115"/>
@@ -17914,7 +17957,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="1:13" customFormat="1" ht="15.75">
+    <row r="17" spans="1:13" customFormat="1" ht="15">
       <c r="A17" s="288"/>
       <c r="B17" s="114"/>
       <c r="C17" s="115"/>
@@ -17935,7 +17978,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="18" spans="1:13" customFormat="1" ht="32.25">
+    <row r="18" spans="1:13" customFormat="1" ht="28.5">
       <c r="A18" s="288"/>
       <c r="B18" s="114"/>
       <c r="C18" s="115"/>
@@ -17956,7 +17999,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="19" spans="1:13" customFormat="1" ht="15.75">
+    <row r="19" spans="1:13" customFormat="1" ht="15">
       <c r="A19" s="288"/>
       <c r="B19" s="114"/>
       <c r="C19" s="115"/>
@@ -17977,7 +18020,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="20" spans="1:13" customFormat="1" ht="48">
+    <row r="20" spans="1:13" customFormat="1" ht="43.5">
       <c r="A20" s="288"/>
       <c r="B20" s="114" t="s">
         <v>280</v>
@@ -18014,7 +18057,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="21" spans="1:13" customFormat="1" ht="17.25">
+    <row r="21" spans="1:13" customFormat="1" ht="15.75">
       <c r="A21" s="288"/>
       <c r="B21" s="114"/>
       <c r="C21" s="115"/>
@@ -18035,7 +18078,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="22" spans="1:13" customFormat="1" ht="17.25">
+    <row r="22" spans="1:13" customFormat="1" ht="15.75">
       <c r="A22" s="288"/>
       <c r="B22" s="114"/>
       <c r="C22" s="115"/>
@@ -18056,7 +18099,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="23" spans="1:13" customFormat="1" ht="17.25">
+    <row r="23" spans="1:13" customFormat="1" ht="15.75">
       <c r="A23" s="288"/>
       <c r="B23" s="114"/>
       <c r="C23" s="115"/>
@@ -18077,7 +18120,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="24" spans="1:13" customFormat="1" ht="17.25">
+    <row r="24" spans="1:13" customFormat="1" ht="15.75">
       <c r="A24" s="288"/>
       <c r="B24" s="114"/>
       <c r="C24" s="115"/>
@@ -18098,7 +18141,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="25" spans="1:13" customFormat="1" ht="17.25">
+    <row r="25" spans="1:13" customFormat="1" ht="15.75">
       <c r="A25" s="288"/>
       <c r="B25" s="114"/>
       <c r="C25" s="115"/>
@@ -18119,7 +18162,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="26" spans="1:13" customFormat="1" ht="17.25">
+    <row r="26" spans="1:13" customFormat="1" ht="15.75">
       <c r="A26" s="288"/>
       <c r="B26" s="114"/>
       <c r="C26" s="115"/>
@@ -18140,7 +18183,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="27" spans="1:13" customFormat="1" ht="17.25">
+    <row r="27" spans="1:13" customFormat="1" ht="15.75">
       <c r="A27" s="288"/>
       <c r="B27" s="114"/>
       <c r="C27" s="115"/>
@@ -18161,7 +18204,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="28" spans="1:13" customFormat="1" ht="17.25">
+    <row r="28" spans="1:13" customFormat="1" ht="15.75">
       <c r="A28" s="288"/>
       <c r="B28" s="114"/>
       <c r="C28" s="115"/>
@@ -18182,7 +18225,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="29" spans="1:13" customFormat="1" ht="17.25">
+    <row r="29" spans="1:13" customFormat="1" ht="15.75">
       <c r="A29" s="288"/>
       <c r="B29" s="114"/>
       <c r="C29" s="115"/>
@@ -18203,7 +18246,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="30" spans="1:13" customFormat="1" ht="17.25">
+    <row r="30" spans="1:13" customFormat="1" ht="15.75">
       <c r="A30" s="288"/>
       <c r="B30" s="114"/>
       <c r="C30" s="115"/>
@@ -18224,7 +18267,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="31" spans="1:13" customFormat="1" ht="17.25">
+    <row r="31" spans="1:13" customFormat="1" ht="15.75">
       <c r="A31" s="288"/>
       <c r="B31" s="114"/>
       <c r="C31" s="115"/>
@@ -18245,7 +18288,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="32" spans="1:13" customFormat="1" ht="17.25">
+    <row r="32" spans="1:13" customFormat="1" ht="15.75">
       <c r="A32" s="288"/>
       <c r="B32" s="114"/>
       <c r="C32" s="115"/>
@@ -18266,7 +18309,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="17.25">
+    <row r="33" spans="1:16" customFormat="1" ht="15.75">
       <c r="A33" s="288"/>
       <c r="B33" s="114"/>
       <c r="C33" s="115"/>
@@ -18287,7 +18330,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="17.25">
+    <row r="34" spans="1:16" customFormat="1" ht="15.75">
       <c r="A34" s="288"/>
       <c r="B34" s="114"/>
       <c r="C34" s="115"/>
@@ -18308,7 +18351,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="17.25">
+    <row r="35" spans="1:16" customFormat="1" ht="15.75">
       <c r="A35" s="288"/>
       <c r="B35" s="114"/>
       <c r="C35" s="115"/>
@@ -18329,7 +18372,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="17.25">
+    <row r="36" spans="1:16" customFormat="1" ht="15.75">
       <c r="A36" s="288"/>
       <c r="B36" s="114"/>
       <c r="C36" s="115"/>
@@ -18350,7 +18393,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="17.25">
+    <row r="37" spans="1:16" customFormat="1" ht="15.75">
       <c r="A37" s="288"/>
       <c r="B37" s="114"/>
       <c r="C37" s="115"/>
@@ -18371,7 +18414,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="17.25">
+    <row r="38" spans="1:16" customFormat="1" ht="15.75">
       <c r="A38" s="289"/>
       <c r="B38" s="114"/>
       <c r="C38" s="115"/>
@@ -18452,7 +18495,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="48">
+    <row r="41" spans="1:16" customFormat="1" ht="29.25">
       <c r="A41" s="288"/>
       <c r="B41" s="114" t="s">
         <v>296</v>
@@ -18771,7 +18814,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="54" spans="1:13" customFormat="1" ht="15.75">
+    <row r="54" spans="1:13" customFormat="1" ht="14.25">
       <c r="A54" s="290"/>
       <c r="B54" s="140"/>
       <c r="C54" s="179"/>
@@ -18792,7 +18835,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="55" spans="1:13" customFormat="1" ht="87">
+    <row r="55" spans="1:13" customFormat="1" ht="85.5">
       <c r="A55" s="291"/>
       <c r="B55" s="114" t="s">
         <v>393</v>
@@ -18831,7 +18874,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:13" customFormat="1">
+    <row r="56" spans="1:13" customFormat="1" ht="15.75">
       <c r="A56" s="291"/>
       <c r="B56" s="70"/>
       <c r="C56" s="67"/>
@@ -18852,7 +18895,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="57" spans="1:13" customFormat="1" ht="15">
+    <row r="57" spans="1:13" customFormat="1" ht="14.25">
       <c r="A57" s="290"/>
       <c r="B57" s="153"/>
       <c r="C57" s="183"/>
@@ -18873,7 +18916,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="58" spans="1:13" customFormat="1" ht="15">
+    <row r="58" spans="1:13" customFormat="1" ht="14.25">
       <c r="A58" s="290"/>
       <c r="B58" s="114"/>
       <c r="C58" s="115"/>
@@ -18894,7 +18937,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="48">
+    <row r="59" spans="1:13" ht="31.5">
       <c r="A59" s="288"/>
       <c r="B59" s="121" t="s">
         <v>524</v>
@@ -18931,7 +18974,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="288"/>
       <c r="B60" s="121"/>
       <c r="C60" s="114"/>
@@ -18952,7 +18995,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="288"/>
       <c r="B61" s="121"/>
       <c r="C61" s="114"/>
@@ -18973,7 +19016,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="288"/>
       <c r="B62" s="121"/>
       <c r="C62" s="114"/>
@@ -18994,7 +19037,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="288"/>
       <c r="B63" s="121"/>
       <c r="C63" s="114"/>
@@ -19015,7 +19058,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="288"/>
       <c r="B64" s="121"/>
       <c r="C64" s="114"/>
@@ -19036,7 +19079,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="288"/>
       <c r="B65" s="121"/>
       <c r="C65" s="114"/>
@@ -19057,7 +19100,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="288"/>
       <c r="B66" s="121"/>
       <c r="C66" s="114"/>
@@ -19078,7 +19121,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="288"/>
       <c r="B67" s="121"/>
       <c r="C67" s="114"/>
@@ -19099,7 +19142,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="29.25">
+    <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="288"/>
       <c r="B68" s="121"/>
       <c r="C68" s="114"/>
@@ -19120,7 +19163,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="288"/>
       <c r="B69" s="121"/>
       <c r="C69" s="114"/>
@@ -19162,7 +19205,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="48">
+    <row r="71" spans="1:13" ht="43.5">
       <c r="A71" s="288"/>
       <c r="B71" s="121"/>
       <c r="C71" s="114"/>
@@ -19183,7 +19226,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="188.25">
+    <row r="72" spans="1:13" ht="186">
       <c r="A72" s="288"/>
       <c r="B72" s="121" t="s">
         <v>542</v>
@@ -19222,7 +19265,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75">
+    <row r="73" spans="1:13" ht="14.25">
       <c r="A73" s="288"/>
       <c r="B73" s="114"/>
       <c r="C73" s="114"/>
@@ -19243,7 +19286,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="188.25">
+    <row r="74" spans="1:13" ht="186">
       <c r="A74" s="288"/>
       <c r="B74" s="121" t="s">
         <v>552</v>
@@ -19276,7 +19319,7 @@
       <c r="L74" s="114"/>
       <c r="M74" s="114"/>
     </row>
-    <row r="75" spans="1:13" ht="188.25">
+    <row r="75" spans="1:13" ht="186">
       <c r="A75" s="289"/>
       <c r="B75" s="121" t="s">
         <v>561</v>
@@ -19309,7 +19352,7 @@
       <c r="L75" s="114"/>
       <c r="M75" s="114"/>
     </row>
-    <row r="76" spans="1:13" ht="130.5">
+    <row r="76" spans="1:13" ht="129">
       <c r="A76" s="292" t="s">
         <v>1075</v>
       </c>
@@ -19350,7 +19393,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="292"/>
       <c r="B77" s="121"/>
       <c r="C77" s="114"/>
@@ -19371,7 +19414,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="64.5">
+    <row r="78" spans="1:13" ht="43.5">
       <c r="A78" s="292"/>
       <c r="B78" s="141"/>
       <c r="C78" s="140" t="s">
@@ -19402,7 +19445,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" ht="15.75">
       <c r="A79" s="292"/>
       <c r="B79" s="141"/>
       <c r="C79" s="140"/>
@@ -19423,7 +19466,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" ht="15.75">
       <c r="A80" s="292"/>
       <c r="B80" s="141"/>
       <c r="C80" s="140"/>
@@ -19444,7 +19487,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="292"/>
       <c r="B81" s="141"/>
       <c r="C81" s="140"/>
@@ -19465,7 +19508,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="292"/>
       <c r="B82" s="141"/>
       <c r="C82" s="140"/>
@@ -19486,7 +19529,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="292"/>
       <c r="B83" s="141"/>
       <c r="C83" s="140"/>
@@ -19507,7 +19550,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="292"/>
       <c r="B84" s="141"/>
       <c r="C84" s="140"/>
@@ -19528,7 +19571,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="292"/>
       <c r="B85" s="141"/>
       <c r="C85" s="140"/>
@@ -19549,7 +19592,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="292"/>
       <c r="B86" s="141"/>
       <c r="C86" s="140"/>
@@ -19570,7 +19613,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="292"/>
       <c r="B87" s="141"/>
       <c r="C87" s="140"/>
@@ -19591,7 +19634,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="292"/>
       <c r="B88" s="141"/>
       <c r="C88" s="140"/>
@@ -19612,7 +19655,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="292"/>
       <c r="B89" s="141"/>
       <c r="C89" s="140"/>
@@ -19633,7 +19676,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="292"/>
       <c r="B90" s="141"/>
       <c r="C90" s="140"/>
@@ -19654,7 +19697,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="292"/>
       <c r="B91" s="141"/>
       <c r="C91" s="140"/>
@@ -19675,7 +19718,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="292"/>
       <c r="B92" s="141"/>
       <c r="C92" s="140"/>
@@ -19696,7 +19739,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="292"/>
       <c r="B93" s="141"/>
       <c r="C93" s="140"/>
@@ -19717,7 +19760,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="64" customFormat="1" ht="64.5">
+    <row r="94" spans="1:16" s="64" customFormat="1" ht="47.25">
       <c r="A94" s="284"/>
       <c r="B94" s="71" t="s">
         <v>704</v>
@@ -19819,7 +19862,7 @@
       <c r="O96" s="108"/>
       <c r="P96" s="108"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="140"/>
       <c r="B97" s="141"/>
       <c r="C97" s="140"/>
@@ -19898,30 +19941,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284FCB9-3FD4-49BA-8155-9FD865B384A9}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="60" customWidth="1"/>
+    <col min="5" max="5" width="52.375" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="38.25" style="42" customWidth="1"/>
+    <col min="8" max="8" width="35.375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="42" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="67.75" customWidth="1"/>
     <col min="13" max="13" width="73" customWidth="1"/>
-    <col min="14" max="14" width="108.85546875" customWidth="1"/>
+    <col min="14" max="14" width="108.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="81" t="s">
         <v>813</v>
       </c>
@@ -19965,7 +20008,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45">
+    <row r="2" spans="1:14" ht="38.25">
       <c r="A2" s="294" t="s">
         <v>1150</v>
       </c>
@@ -20123,7 +20166,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5">
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="294"/>
       <c r="B7" s="83"/>
       <c r="C7" s="193"/>
@@ -20145,7 +20188,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5">
+    <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="294"/>
       <c r="B8" s="83"/>
       <c r="C8" s="193"/>
@@ -20167,7 +20210,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5">
+    <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="294"/>
       <c r="B9" s="83"/>
       <c r="C9" s="193"/>
@@ -20189,7 +20232,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
+    <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="294"/>
       <c r="B10" s="83"/>
       <c r="C10" s="193"/>
@@ -20211,7 +20254,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="294"/>
       <c r="B11" s="83"/>
       <c r="C11" s="193"/>
@@ -20233,7 +20276,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5">
+    <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="294"/>
       <c r="B12" s="83"/>
       <c r="C12" s="193"/>
@@ -20255,7 +20298,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="73.5">
+    <row r="13" spans="1:14" ht="56.25">
       <c r="A13" s="294"/>
       <c r="B13" s="83" t="s">
         <v>457</v>
@@ -20363,7 +20406,7 @@
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
-    <row r="17" spans="1:14" ht="90">
+    <row r="17" spans="1:14" ht="63.75">
       <c r="A17" s="295" t="s">
         <v>1212</v>
       </c>
@@ -20407,7 +20450,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75">
+    <row r="18" spans="1:14">
       <c r="A18" s="295"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -20467,7 +20510,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="19.5">
+    <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="295"/>
       <c r="B20" s="83"/>
       <c r="C20" s="193"/>
@@ -20489,7 +20532,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19.5">
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="295"/>
       <c r="B21" s="83"/>
       <c r="C21" s="193"/>
@@ -20511,7 +20554,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19.5">
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="295"/>
       <c r="B22" s="83"/>
       <c r="C22" s="193"/>
@@ -20533,7 +20576,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19.5">
+    <row r="23" spans="1:14" ht="15.75">
       <c r="A23" s="295"/>
       <c r="B23" s="83"/>
       <c r="C23" s="193"/>
@@ -20555,7 +20598,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19.5">
+    <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="295"/>
       <c r="B24" s="83"/>
       <c r="C24" s="193"/>
@@ -20577,7 +20620,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="52.5">
+    <row r="25" spans="1:14" ht="33.75">
       <c r="A25" s="295"/>
       <c r="B25" s="83"/>
       <c r="C25" s="193"/>
@@ -20603,7 +20646,7 @@
       <c r="M25" s="68"/>
       <c r="N25" s="68"/>
     </row>
-    <row r="26" spans="1:14" ht="90">
+    <row r="26" spans="1:14" ht="86.25">
       <c r="A26" s="296" t="s">
         <v>1246</v>
       </c>
@@ -20647,7 +20690,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14">
       <c r="A27" s="295"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
@@ -20669,7 +20712,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="129.75">
+    <row r="28" spans="1:14" ht="114.75">
       <c r="A28" s="295"/>
       <c r="B28" s="83" t="s">
         <v>499</v>
@@ -20707,7 +20750,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.5">
+    <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="295"/>
       <c r="B29" s="83"/>
       <c r="C29" s="193"/>
@@ -20729,7 +20772,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.5">
+    <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="295"/>
       <c r="B30" s="83"/>
       <c r="C30" s="193"/>
@@ -20751,7 +20794,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.5">
+    <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="295"/>
       <c r="B31" s="83"/>
       <c r="C31" s="193"/>
@@ -20863,7 +20906,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75">
+    <row r="35" spans="1:14">
       <c r="A35" s="294"/>
       <c r="B35" s="68"/>
       <c r="C35" s="68"/>
@@ -20885,7 +20928,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="45">
+    <row r="36" spans="1:14" ht="38.25">
       <c r="A36" s="294"/>
       <c r="B36" s="83" t="s">
         <v>516</v>
@@ -20923,7 +20966,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5">
+    <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="294"/>
       <c r="B37" s="83"/>
       <c r="C37" s="193"/>
@@ -20945,7 +20988,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.5">
+    <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="294"/>
       <c r="B38" s="83"/>
       <c r="C38" s="193"/>
@@ -20967,7 +21010,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.5">
+    <row r="39" spans="1:14" ht="15.75">
       <c r="A39" s="294"/>
       <c r="B39" s="83"/>
       <c r="C39" s="193"/>
@@ -20989,7 +21032,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.5">
+    <row r="40" spans="1:14" ht="15.75">
       <c r="A40" s="294"/>
       <c r="B40" s="83"/>
       <c r="C40" s="193"/>
@@ -21011,7 +21054,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5">
+    <row r="41" spans="1:14" ht="15.75">
       <c r="A41" s="294"/>
       <c r="B41" s="83"/>
       <c r="C41" s="193"/>
@@ -21033,7 +21076,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="60">
+    <row r="42" spans="1:14" ht="45">
       <c r="A42" s="294" t="s">
         <v>1303</v>
       </c>
@@ -21073,7 +21116,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5">
+    <row r="43" spans="1:14" ht="15.75">
       <c r="A43" s="294"/>
       <c r="B43" s="83"/>
       <c r="C43" s="193"/>
@@ -21095,7 +21138,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.5">
+    <row r="44" spans="1:14" ht="15.75">
       <c r="A44" s="294"/>
       <c r="B44" s="83"/>
       <c r="C44" s="193"/>
@@ -21117,7 +21160,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.5">
+    <row r="45" spans="1:14" ht="15.75">
       <c r="A45" s="294"/>
       <c r="B45" s="83"/>
       <c r="C45" s="193"/>
@@ -21139,7 +21182,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16.5">
+    <row r="46" spans="1:14" ht="15.75">
       <c r="A46" s="294"/>
       <c r="B46" s="83"/>
       <c r="C46" s="193"/>
@@ -21161,7 +21204,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16.5">
+    <row r="47" spans="1:14" ht="15.75">
       <c r="A47" s="294"/>
       <c r="B47" s="83"/>
       <c r="C47" s="193"/>
@@ -21183,7 +21226,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16.5">
+    <row r="48" spans="1:14" ht="15.75">
       <c r="A48" s="294"/>
       <c r="B48" s="83"/>
       <c r="C48" s="193"/>
@@ -21205,7 +21248,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16.5">
+    <row r="49" spans="1:14" ht="15.75">
       <c r="A49" s="294"/>
       <c r="B49" s="83"/>
       <c r="C49" s="193"/>
@@ -21227,7 +21270,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16.5">
+    <row r="50" spans="1:14" ht="15.75">
       <c r="A50" s="294"/>
       <c r="B50" s="83"/>
       <c r="C50" s="193"/>
@@ -21249,7 +21292,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16.5">
+    <row r="51" spans="1:14" ht="15.75">
       <c r="A51" s="294"/>
       <c r="B51" s="83"/>
       <c r="C51" s="193"/>
@@ -21271,7 +21314,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="48">
+    <row r="52" spans="1:14" ht="57">
       <c r="A52" s="294"/>
       <c r="B52" s="83" t="s">
         <v>579</v>
@@ -21309,7 +21352,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.5">
+    <row r="53" spans="1:14" ht="15.75">
       <c r="A53" s="294"/>
       <c r="B53" s="83"/>
       <c r="C53" s="193"/>
@@ -21331,7 +21374,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5">
+    <row r="54" spans="1:14" ht="15.75">
       <c r="A54" s="294"/>
       <c r="B54" s="83"/>
       <c r="C54" s="193"/>
@@ -21353,7 +21396,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.5">
+    <row r="55" spans="1:14" ht="15.75">
       <c r="A55" s="294"/>
       <c r="B55" s="83"/>
       <c r="C55" s="193"/>
@@ -21375,7 +21418,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5">
+    <row r="56" spans="1:14" ht="15.75">
       <c r="A56" s="294"/>
       <c r="B56" s="83"/>
       <c r="C56" s="193"/>
@@ -21397,7 +21440,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5">
+    <row r="57" spans="1:14" ht="15.75">
       <c r="A57" s="294"/>
       <c r="B57" s="83"/>
       <c r="C57" s="193"/>
@@ -21419,7 +21462,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5">
+    <row r="58" spans="1:14" ht="15.75">
       <c r="A58" s="294"/>
       <c r="B58" s="83"/>
       <c r="C58" s="193"/>
@@ -21441,7 +21484,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5">
+    <row r="59" spans="1:14" ht="15.75">
       <c r="A59" s="294"/>
       <c r="B59" s="68"/>
       <c r="C59" s="66" t="s">
@@ -21527,7 +21570,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5">
+    <row r="62" spans="1:14" ht="15.75">
       <c r="A62" s="294"/>
       <c r="B62" s="83"/>
       <c r="C62" s="193"/>
@@ -21549,7 +21592,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5">
+    <row r="63" spans="1:14" ht="15.75">
       <c r="A63" s="294"/>
       <c r="B63" s="83"/>
       <c r="C63" s="193"/>
@@ -21571,7 +21614,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5">
+    <row r="64" spans="1:14" ht="15.75">
       <c r="A64" s="294"/>
       <c r="B64" s="83"/>
       <c r="C64" s="193"/>
@@ -21593,7 +21636,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5">
+    <row r="65" spans="1:14" ht="15.75">
       <c r="A65" s="294"/>
       <c r="B65" s="83"/>
       <c r="C65" s="193"/>
@@ -21615,7 +21658,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="32.25">
+    <row r="66" spans="1:14" ht="25.5">
       <c r="A66" s="294"/>
       <c r="B66" s="83"/>
       <c r="C66" s="193" t="s">
@@ -21679,7 +21722,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16.5">
+    <row r="68" spans="1:14" ht="15.75">
       <c r="A68" s="294"/>
       <c r="B68" s="83"/>
       <c r="C68" s="193"/>
@@ -21701,7 +21744,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16.5">
+    <row r="69" spans="1:14" ht="15.75">
       <c r="A69" s="294"/>
       <c r="B69" s="83"/>
       <c r="C69" s="193"/>
@@ -21723,7 +21766,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5">
+    <row r="70" spans="1:14" ht="15.75">
       <c r="A70" s="294"/>
       <c r="B70" s="83"/>
       <c r="C70" s="193"/>
@@ -21745,7 +21788,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5">
+    <row r="71" spans="1:14" ht="15.75">
       <c r="A71" s="294"/>
       <c r="B71" s="83"/>
       <c r="C71" s="193"/>
@@ -21767,7 +21810,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5">
+    <row r="72" spans="1:14" ht="15.75">
       <c r="A72" s="294"/>
       <c r="B72" s="83"/>
       <c r="C72" s="193"/>
@@ -21789,7 +21832,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5">
+    <row r="73" spans="1:14" ht="15.75">
       <c r="A73" s="294"/>
       <c r="B73" s="83"/>
       <c r="C73" s="193"/>
@@ -21811,7 +21854,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16.5">
+    <row r="74" spans="1:14" ht="15.75">
       <c r="A74" s="294"/>
       <c r="B74" s="83"/>
       <c r="C74" s="193"/>
@@ -21871,7 +21914,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5">
+    <row r="76" spans="1:14" ht="15.75">
       <c r="A76" s="294"/>
       <c r="B76" s="83"/>
       <c r="C76" s="193"/>
@@ -21931,7 +21974,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16.5">
+    <row r="78" spans="1:14" ht="15">
       <c r="A78" s="294"/>
       <c r="B78" s="83"/>
       <c r="C78" s="83"/>
@@ -21953,7 +21996,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="31.5">
+    <row r="79" spans="1:14" ht="28.5">
       <c r="A79" s="294"/>
       <c r="B79" s="83" t="s">
         <v>623</v>
@@ -21991,7 +22034,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5">
+    <row r="80" spans="1:14" ht="15">
       <c r="A80" s="294"/>
       <c r="B80" s="83"/>
       <c r="C80" s="193"/>
@@ -22012,7 +22055,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16.5">
+    <row r="81" spans="1:14" ht="15">
       <c r="A81" s="294"/>
       <c r="B81" s="83"/>
       <c r="C81" s="193"/>
@@ -22071,7 +22114,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16.5">
+    <row r="83" spans="1:14" ht="15.75">
       <c r="A83" s="294"/>
       <c r="B83" s="83"/>
       <c r="C83" s="193"/>
@@ -22093,7 +22136,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16.5">
+    <row r="84" spans="1:14" ht="15.75">
       <c r="A84" s="294"/>
       <c r="B84" s="83"/>
       <c r="C84" s="193"/>
@@ -22115,7 +22158,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16.5">
+    <row r="85" spans="1:14" ht="15.75">
       <c r="A85" s="294"/>
       <c r="B85" s="83"/>
       <c r="C85" s="193"/>
@@ -22137,7 +22180,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16.5">
+    <row r="86" spans="1:14" ht="15.75">
       <c r="A86" s="294"/>
       <c r="B86" s="83"/>
       <c r="C86" s="193"/>
@@ -22159,7 +22202,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16.5">
+    <row r="87" spans="1:14" ht="15.75">
       <c r="A87" s="294"/>
       <c r="B87" s="83"/>
       <c r="C87" s="193"/>
@@ -22181,7 +22224,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16.5">
+    <row r="88" spans="1:14" ht="15.75">
       <c r="A88" s="294"/>
       <c r="B88" s="83"/>
       <c r="C88" s="193"/>
@@ -22203,7 +22246,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="16.5">
+    <row r="89" spans="1:14" ht="15.75">
       <c r="A89" s="294"/>
       <c r="B89" s="83"/>
       <c r="C89" s="193"/>
@@ -22225,7 +22268,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16.5">
+    <row r="90" spans="1:14" ht="15.75">
       <c r="A90" s="294"/>
       <c r="B90" s="83"/>
       <c r="C90" s="193"/>
@@ -22247,7 +22290,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16.5">
+    <row r="91" spans="1:14" ht="15.75">
       <c r="A91" s="294"/>
       <c r="B91" s="83"/>
       <c r="C91" s="193"/>
@@ -22269,7 +22312,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="16.5">
+    <row r="92" spans="1:14" ht="15.75">
       <c r="A92" s="294"/>
       <c r="B92" s="83"/>
       <c r="C92" s="193"/>
@@ -22291,7 +22334,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="113.25">
+    <row r="93" spans="1:14" ht="99.75">
       <c r="A93" s="294"/>
       <c r="B93" s="83" t="s">
         <v>641</v>
@@ -22329,7 +22372,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.75">
+    <row r="94" spans="1:14">
       <c r="A94" s="294"/>
       <c r="B94" s="68"/>
       <c r="C94" s="68"/>
@@ -22389,7 +22432,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16.5">
+    <row r="96" spans="1:14" ht="15.75">
       <c r="A96" s="294"/>
       <c r="B96" s="83"/>
       <c r="C96" s="193"/>
@@ -22411,7 +22454,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16.5">
+    <row r="97" spans="1:14" ht="15.75">
       <c r="A97" s="294"/>
       <c r="B97" s="83"/>
       <c r="C97" s="193"/>
@@ -22433,7 +22476,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16.5">
+    <row r="98" spans="1:14" ht="15.75">
       <c r="A98" s="294"/>
       <c r="B98" s="83"/>
       <c r="C98" s="193"/>
@@ -22455,7 +22498,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16.5">
+    <row r="99" spans="1:14" ht="15.75">
       <c r="A99" s="294"/>
       <c r="B99" s="83"/>
       <c r="C99" s="193"/>
@@ -22477,7 +22520,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="16.5">
+    <row r="100" spans="1:14" ht="15.75">
       <c r="A100" s="294"/>
       <c r="B100" s="83"/>
       <c r="C100" s="193"/>
@@ -22537,7 +22580,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16.5">
+    <row r="102" spans="1:14" ht="15.75">
       <c r="A102" s="294"/>
       <c r="B102" s="83"/>
       <c r="C102" s="193"/>
@@ -22559,7 +22602,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16.5">
+    <row r="103" spans="1:14" ht="15.75">
       <c r="A103" s="294"/>
       <c r="B103" s="83"/>
       <c r="C103" s="193"/>
@@ -22581,7 +22624,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="16.5">
+    <row r="104" spans="1:14" ht="15.75">
       <c r="A104" s="294"/>
       <c r="B104" s="83"/>
       <c r="C104" s="193"/>
@@ -22603,7 +22646,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16.5">
+    <row r="105" spans="1:14" ht="15.75">
       <c r="A105" s="294"/>
       <c r="B105" s="83"/>
       <c r="C105" s="193"/>
@@ -22625,7 +22668,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16.5">
+    <row r="106" spans="1:14" ht="15.75">
       <c r="A106" s="294"/>
       <c r="B106" s="83"/>
       <c r="C106" s="193"/>
@@ -22647,7 +22690,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="16.5">
+    <row r="107" spans="1:14" ht="15.75">
       <c r="A107" s="294"/>
       <c r="B107" s="83"/>
       <c r="C107" s="193"/>
@@ -22669,7 +22712,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16.5">
+    <row r="108" spans="1:14" ht="15.75">
       <c r="A108" s="294"/>
       <c r="B108" s="83"/>
       <c r="C108" s="193"/>
@@ -22691,7 +22734,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.5">
+    <row r="109" spans="1:14" ht="15.75">
       <c r="A109" s="294"/>
       <c r="B109" s="83"/>
       <c r="C109" s="193"/>
@@ -22713,7 +22756,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16.5">
+    <row r="110" spans="1:14" ht="15.75">
       <c r="A110" s="294"/>
       <c r="B110" s="83"/>
       <c r="C110" s="193"/>
@@ -22735,7 +22778,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="16.5">
+    <row r="111" spans="1:14" ht="15.75">
       <c r="A111" s="294"/>
       <c r="B111" s="83"/>
       <c r="C111" s="193"/>
@@ -22757,7 +22800,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16.5">
+    <row r="112" spans="1:14" ht="15.75">
       <c r="A112" s="294"/>
       <c r="B112" s="83"/>
       <c r="C112" s="193"/>
@@ -22779,7 +22822,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16.5">
+    <row r="113" spans="1:14" ht="15.75">
       <c r="A113" s="294"/>
       <c r="B113" s="83"/>
       <c r="C113" s="193"/>
@@ -22839,7 +22882,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16.5">
+    <row r="115" spans="1:14" ht="15.75">
       <c r="A115" s="294"/>
       <c r="B115" s="83"/>
       <c r="C115" s="193"/>
@@ -22861,7 +22904,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16.5">
+    <row r="116" spans="1:14" ht="15.75">
       <c r="A116" s="294"/>
       <c r="B116" s="83"/>
       <c r="C116" s="193"/>
@@ -22883,7 +22926,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16.5">
+    <row r="117" spans="1:14" ht="15.75">
       <c r="A117" s="294"/>
       <c r="B117" s="83"/>
       <c r="C117" s="193"/>
@@ -22905,7 +22948,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16.5">
+    <row r="118" spans="1:14" ht="15.75">
       <c r="A118" s="294"/>
       <c r="B118" s="83"/>
       <c r="C118" s="193"/>
@@ -22965,7 +23008,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5">
+    <row r="120" spans="1:14" ht="15.75">
       <c r="A120" s="294"/>
       <c r="B120" s="83"/>
       <c r="C120" s="193"/>
@@ -22987,7 +23030,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16.5">
+    <row r="121" spans="1:14" ht="15.75">
       <c r="A121" s="294"/>
       <c r="B121" s="83"/>
       <c r="C121" s="193"/>
@@ -23009,7 +23052,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16.5">
+    <row r="122" spans="1:14" ht="15.75">
       <c r="A122" s="294"/>
       <c r="B122" s="83"/>
       <c r="C122" s="193"/>
@@ -23031,7 +23074,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16.5">
+    <row r="123" spans="1:14" ht="15.75">
       <c r="A123" s="294"/>
       <c r="B123" s="83"/>
       <c r="C123" s="193"/>
@@ -23053,7 +23096,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16.5">
+    <row r="124" spans="1:14" ht="15.75">
       <c r="A124" s="294"/>
       <c r="B124" s="83"/>
       <c r="C124" s="193"/>
@@ -23075,7 +23118,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16.5">
+    <row r="125" spans="1:14" ht="15.75">
       <c r="A125" s="294"/>
       <c r="B125" s="83"/>
       <c r="C125" s="193"/>
@@ -23097,7 +23140,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16.5">
+    <row r="126" spans="1:14" ht="15.75">
       <c r="A126" s="294"/>
       <c r="B126" s="83"/>
       <c r="C126" s="193"/>
@@ -23157,7 +23200,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16.5">
+    <row r="128" spans="1:14" ht="15.75">
       <c r="A128" s="294"/>
       <c r="B128" s="83"/>
       <c r="C128" s="193"/>
@@ -23179,7 +23222,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16.5">
+    <row r="129" spans="1:14" ht="15.75">
       <c r="A129" s="294"/>
       <c r="B129" s="83"/>
       <c r="C129" s="193"/>
@@ -23201,7 +23244,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="16.5">
+    <row r="130" spans="1:14" ht="15.75">
       <c r="A130" s="294"/>
       <c r="B130" s="83"/>
       <c r="C130" s="193"/>
@@ -23223,7 +23266,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="16.5">
+    <row r="131" spans="1:14" ht="15.75">
       <c r="A131" s="294"/>
       <c r="B131" s="83"/>
       <c r="C131" s="193"/>
@@ -23245,7 +23288,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="16.5">
+    <row r="132" spans="1:14" ht="15.75">
       <c r="A132" s="294"/>
       <c r="B132" s="83"/>
       <c r="C132" s="193"/>
@@ -23267,7 +23310,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="16.5">
+    <row r="133" spans="1:14" ht="15.75">
       <c r="A133" s="294"/>
       <c r="B133" s="83"/>
       <c r="C133" s="193"/>
@@ -23289,7 +23332,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="16.5">
+    <row r="134" spans="1:14" ht="15.75">
       <c r="A134" s="294"/>
       <c r="B134" s="83"/>
       <c r="C134" s="193"/>
@@ -23311,7 +23354,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="16.5">
+    <row r="135" spans="1:14" ht="15.75">
       <c r="A135" s="294"/>
       <c r="B135" s="83"/>
       <c r="C135" s="193"/>
@@ -23333,7 +23376,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="16.5">
+    <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="294"/>
       <c r="B136" s="83"/>
       <c r="C136" s="193"/>
@@ -23355,7 +23398,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="16.5">
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="294"/>
       <c r="B137" s="83"/>
       <c r="C137" s="193"/>
@@ -23377,7 +23420,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="16.5">
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="294"/>
       <c r="B138" s="83"/>
       <c r="C138" s="193"/>
@@ -23430,7 +23473,7 @@
       <c r="M139" s="68"/>
       <c r="N139" s="68"/>
     </row>
-    <row r="140" spans="1:14" ht="16.5">
+    <row r="140" spans="1:14" ht="15">
       <c r="A140" s="294"/>
       <c r="B140" s="83"/>
       <c r="C140" s="193" t="s">
@@ -23516,7 +23559,7 @@
       <c r="M142" s="66"/>
       <c r="N142" s="66"/>
     </row>
-    <row r="143" spans="1:14" ht="17.25">
+    <row r="143" spans="1:14" ht="15.75">
       <c r="A143" s="293"/>
       <c r="B143" s="93" t="s">
         <v>1644</v>
@@ -23542,7 +23585,7 @@
       <c r="M143" s="68"/>
       <c r="N143" s="68"/>
     </row>
-    <row r="144" spans="1:14" ht="17.25">
+    <row r="144" spans="1:14" ht="15.75">
       <c r="A144" s="293"/>
       <c r="B144" s="89" t="s">
         <v>1648</v>
@@ -23568,7 +23611,7 @@
       <c r="M144" s="68"/>
       <c r="N144" s="68"/>
     </row>
-    <row r="145" spans="1:14" ht="17.25">
+    <row r="145" spans="1:14" ht="15.75">
       <c r="A145" s="293"/>
       <c r="B145" s="89" t="s">
         <v>1652</v>
@@ -23600,7 +23643,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="17.25">
+    <row r="146" spans="1:14" ht="15.75">
       <c r="A146" s="293"/>
       <c r="B146" s="89"/>
       <c r="C146" s="193"/>
@@ -23622,7 +23665,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="17.25">
+    <row r="147" spans="1:14" ht="15.75">
       <c r="A147" s="293"/>
       <c r="B147" s="89"/>
       <c r="C147" s="193"/>
@@ -23644,7 +23687,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="17.25">
+    <row r="148" spans="1:14" ht="15.75">
       <c r="A148" s="293"/>
       <c r="B148" s="89"/>
       <c r="C148" s="193"/>
@@ -23666,7 +23709,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="17.25">
+    <row r="149" spans="1:14" ht="15.75">
       <c r="A149" s="293"/>
       <c r="B149" s="89"/>
       <c r="C149" s="193"/>
@@ -23688,7 +23731,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="17.25">
+    <row r="150" spans="1:14" ht="15.75">
       <c r="A150" s="293"/>
       <c r="B150" s="89"/>
       <c r="C150" s="193"/>
@@ -23710,7 +23753,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="17.25">
+    <row r="151" spans="1:14" ht="15.75">
       <c r="A151" s="293"/>
       <c r="B151" s="89"/>
       <c r="C151" s="193"/>
@@ -23732,7 +23775,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="17.25">
+    <row r="152" spans="1:14" ht="15.75">
       <c r="A152" s="293"/>
       <c r="B152" s="89"/>
       <c r="C152" s="193"/>
@@ -23754,7 +23797,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="17.25">
+    <row r="153" spans="1:14" ht="15.75">
       <c r="A153" s="293"/>
       <c r="B153" s="89"/>
       <c r="C153" s="193"/>
@@ -23776,7 +23819,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="17.25">
+    <row r="154" spans="1:14" ht="15.75">
       <c r="A154" s="293"/>
       <c r="B154" s="89"/>
       <c r="C154" s="193"/>
@@ -23798,7 +23841,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="17.25">
+    <row r="155" spans="1:14" ht="15.75">
       <c r="A155" s="293"/>
       <c r="B155" s="89"/>
       <c r="C155" s="193"/>
@@ -23820,7 +23863,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="17.25">
+    <row r="156" spans="1:14" ht="15.75">
       <c r="A156" s="293"/>
       <c r="B156" s="68"/>
       <c r="C156" s="68"/>
@@ -23842,7 +23885,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="17.25">
+    <row r="157" spans="1:14" ht="15.75">
       <c r="A157" s="293"/>
       <c r="B157" s="68"/>
       <c r="C157" s="68"/>
@@ -23864,7 +23907,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="17.25">
+    <row r="158" spans="1:14" ht="15.75">
       <c r="A158" s="293"/>
       <c r="B158" s="68"/>
       <c r="C158" s="68"/>
@@ -23886,7 +23929,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="17.25">
+    <row r="159" spans="1:14" ht="15.75">
       <c r="A159" s="293"/>
       <c r="B159" s="68"/>
       <c r="C159" s="68"/>
@@ -23908,7 +23951,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="17.25">
+    <row r="160" spans="1:14" ht="15.75">
       <c r="A160" s="293"/>
       <c r="B160" s="89" t="s">
         <v>1701</v>
@@ -23934,7 +23977,7 @@
       <c r="M160" s="68"/>
       <c r="N160" s="68"/>
     </row>
-    <row r="161" spans="1:14" ht="17.25">
+    <row r="161" spans="1:14" ht="15.75">
       <c r="A161" s="293"/>
       <c r="B161" s="89" t="s">
         <v>1705</v>
@@ -23982,22 +24025,22 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="9" width="31.125" customWidth="1"/>
+    <col min="10" max="10" width="29.875" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="79" t="s">
         <v>813</v>
       </c>
@@ -24160,7 +24203,7 @@
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="28.5">
       <c r="A6" s="298"/>
       <c r="B6" s="245" t="s">
         <v>157</v>
@@ -24227,7 +24270,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="96">
+    <row r="8" spans="1:13" ht="71.25">
       <c r="A8" s="298"/>
       <c r="B8" s="245"/>
       <c r="C8" s="68"/>
@@ -24248,7 +24291,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="113.25">
+    <row r="9" spans="1:13" ht="99.75">
       <c r="A9" s="298"/>
       <c r="B9" s="245"/>
       <c r="C9" s="68"/>
@@ -24269,7 +24312,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="145.5">
+    <row r="10" spans="1:13" ht="128.25">
       <c r="A10" s="298"/>
       <c r="B10" s="245"/>
       <c r="C10" s="68"/>
@@ -24311,7 +24354,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:13">
       <c r="A12" s="298"/>
       <c r="B12" s="245"/>
       <c r="C12" s="68"/>
@@ -24332,7 +24375,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13">
       <c r="A13" s="299"/>
       <c r="B13" s="245"/>
       <c r="C13" s="68"/>
@@ -24353,7 +24396,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="32.25">
+    <row r="14" spans="1:13" ht="28.5">
       <c r="A14" s="297" t="s">
         <v>1751</v>
       </c>
@@ -24429,7 +24472,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13">
       <c r="A16" s="298"/>
       <c r="B16" s="245"/>
       <c r="C16" s="68"/>
@@ -24450,7 +24493,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75">
+    <row r="17" spans="1:13">
       <c r="A17" s="298"/>
       <c r="B17" s="245"/>
       <c r="C17" s="68"/>
@@ -24629,7 +24672,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13">
       <c r="A24" s="298"/>
       <c r="B24" s="245"/>
       <c r="C24" s="68"/>
@@ -24867,19 +24910,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="60" customWidth="1"/>
     <col min="2" max="3" width="35" style="60" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="60" customWidth="1"/>
-    <col min="6" max="7" width="26.42578125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="60" customWidth="1"/>
+    <col min="6" max="7" width="26.375" style="60" customWidth="1"/>
     <col min="8" max="9" width="29" style="60" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="60" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="60" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" style="60" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" style="60" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="60"/>
+    <col min="10" max="10" width="21.875" style="60" customWidth="1"/>
+    <col min="11" max="11" width="27.75" style="60" customWidth="1"/>
+    <col min="12" max="12" width="29.375" style="60" customWidth="1"/>
+    <col min="13" max="13" width="34.75" style="60" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75">
@@ -24923,7 +24966,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="141">
+    <row r="2" spans="1:13" ht="198">
       <c r="A2" s="300" t="s">
         <v>1820</v>
       </c>
@@ -25090,7 +25133,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="122.25">
+    <row r="9" spans="1:13" ht="103.5">
       <c r="A9" s="300"/>
       <c r="B9" s="67" t="s">
         <v>315</v>
@@ -25208,7 +25251,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13">
       <c r="A13" s="67"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -25229,7 +25272,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="32.25">
+    <row r="14" spans="1:13" ht="42.75">
       <c r="A14" s="67"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -25250,7 +25293,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="31.5">
+    <row r="15" spans="1:13" ht="28.5">
       <c r="A15" s="67"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -25271,7 +25314,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13">
       <c r="A16" s="67"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -25292,7 +25335,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="48">
+    <row r="17" spans="1:13" ht="42.75">
       <c r="A17" s="67"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -25313,7 +25356,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="64.5">
+    <row r="18" spans="1:13" ht="42.75">
       <c r="A18" s="67"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -25334,7 +25377,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="48">
+    <row r="19" spans="1:13" ht="28.5">
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -25355,7 +25398,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75">
+    <row r="20" spans="1:13">
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -25376,7 +25419,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75">
+    <row r="21" spans="1:13">
       <c r="A21" s="67"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -25469,7 +25512,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.25">
+    <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="300"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -25490,7 +25533,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.25">
+    <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="300"/>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -25511,7 +25554,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.25">
+    <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="300"/>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
@@ -25532,7 +25575,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.25">
+    <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="300"/>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
@@ -25553,7 +25596,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.25">
+    <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="300"/>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
@@ -25574,7 +25617,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25">
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="300"/>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
@@ -25626,7 +25669,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13">
       <c r="A31" s="300"/>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
@@ -25686,7 +25729,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75">
+    <row r="33" spans="1:13">
       <c r="A33" s="300"/>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
@@ -25777,7 +25820,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75">
+    <row r="36" spans="1:13">
       <c r="A36" s="300"/>
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
@@ -25840,23 +25883,23 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="44.125" customWidth="1"/>
+    <col min="8" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="35.375" customWidth="1"/>
     <col min="12" max="12" width="39" customWidth="1"/>
-    <col min="13" max="13" width="63.5703125" customWidth="1"/>
+    <col min="13" max="13" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
@@ -26001,7 +26044,7 @@
       </c>
       <c r="N5" s="273"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25">
+    <row r="6" spans="1:14" ht="31.5">
       <c r="A6" s="68"/>
       <c r="B6" s="269"/>
       <c r="C6" s="269"/>
@@ -26538,6 +26581,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
@@ -26548,23 +26600,40 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>